--- a/pages/demo-st8.xlsx
+++ b/pages/demo-st8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://handasaarchitectur-my.sharepoint.com/personal/fardini_nawe_ae/Documents/Documents/pages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://handasaarchitectur-my.sharepoint.com/personal/fardini_nawe_ae/Documents/Documents/website-fardini/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{02A05CDF-5F65-46F7-8FBB-A65148F0C4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B7E65A-AD05-4E6D-A93A-31A49DD052D5}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{02A05CDF-5F65-46F7-8FBB-A65148F0C4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71C39C91-168C-4BA0-B984-917388004909}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-732" windowWidth="23256" windowHeight="12456" xr2:uid="{566C9097-6993-4833-AB68-50FA8114C114}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{566C9097-6993-4833-AB68-50FA8114C114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -278,9 +278,6 @@
     <t>f</t>
   </si>
   <si>
-    <t xml:space="preserve">Stormwater pipe network length </t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Stormwater pipe network length (m)</t>
   </si>
 </sst>
 </file>
@@ -693,41 +693,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DBA2A-CC46-4AE8-81AF-94BA02DB1521}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="52" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -753,7 +753,7 @@
         <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
         <v>79</v>
@@ -795,20 +795,20 @@
         <v>79</v>
       </c>
       <c r="W1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="X1" t="s">
         <v>79</v>
       </c>
       <c r="Y1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -882,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -962,13 +962,13 @@
         <v>1.5</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1030,10 +1030,10 @@
         <v>0.2</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>13</v>
@@ -1042,13 +1042,13 @@
         <v>2</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1110,10 +1110,10 @@
         <v>0.4</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>11</v>
@@ -1122,13 +1122,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1172,16 +1172,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S7" s="3">
         <v>5</v>
@@ -1190,10 +1190,10 @@
         <v>0.5</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>9</v>
@@ -1202,18 +1202,18 @@
         <v>2.5</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z7">
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1240,10 +1240,10 @@
         <v>2.8</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>53</v>
@@ -1252,28 +1252,28 @@
         <v>0.1</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>7</v>
@@ -1282,18 +1282,18 @@
         <v>2.9</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1320,10 +1320,10 @@
         <v>3.6</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>54</v>
@@ -1332,28 +1332,28 @@
         <v>0.13</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W9" t="s">
         <v>5</v>
@@ -1362,18 +1362,18 @@
         <v>3.3</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1382,10 +1382,10 @@
         <v>4.2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>31</v>
@@ -1400,10 +1400,10 @@
         <v>4.5</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>55</v>
@@ -1412,28 +1412,28 @@
         <v>0.16</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W10" t="s">
         <v>3</v>
@@ -1442,18 +1442,18 @@
         <v>4</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1462,10 +1462,10 @@
         <v>5.5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>32</v>
@@ -1480,10 +1480,10 @@
         <v>6</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>56</v>
@@ -1492,28 +1492,28 @@
         <v>0.2</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W11" t="s">
         <v>2</v>
@@ -1522,18 +1522,18 @@
         <v>5</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1542,10 +1542,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>33</v>
@@ -1560,10 +1560,10 @@
         <v>10</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>57</v>
@@ -1572,28 +1572,28 @@
         <v>0.25</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W12" t="s">
         <v>1</v>
@@ -1602,18 +1602,18 @@
         <v>6.3</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -1622,28 +1622,28 @@
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>58</v>
@@ -1652,28 +1652,28 @@
         <v>0.4</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W13" t="s">
         <v>0</v>
@@ -1682,48 +1682,48 @@
         <v>8</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>59</v>
@@ -1732,78 +1732,78 @@
         <v>0.7</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>60</v>
@@ -1812,78 +1812,78 @@
         <v>1</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>61</v>
@@ -1892,78 +1892,78 @@
         <v>1.5</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>62</v>
@@ -1972,78 +1972,78 @@
         <v>2</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>63</v>
@@ -2052,40 +2052,40 @@
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
